--- a/Resources/Jira Board.xlsx
+++ b/Resources/Jira Board.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\part time\Vaishanavi project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pt\Vaishanavi project\ProjectManagement\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9357B00-4099-4299-AF1F-002C5EAE70CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752AD28C-460E-44B6-A59C-9C018F589257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{53EFDC25-BDF6-418E-A246-9A49443D8197}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{53EFDC25-BDF6-418E-A246-9A49443D8197}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="202">
   <si>
     <t>Project Setup and Planning:</t>
   </si>
@@ -214,6 +215,423 @@
   </si>
   <si>
     <t>Others:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Employee Form: </t>
+  </si>
+  <si>
+    <t>As a user, I want to have a form to add a new employee to the system.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria:</t>
+  </si>
+  <si>
+    <t>The form should capture essential employee details such as name, email, and role.</t>
+  </si>
+  <si>
+    <t>Upon submission, the employee information should be saved in the database.</t>
+  </si>
+  <si>
+    <t>Add Project Form:</t>
+  </si>
+  <si>
+    <t>As a user, I want to have a form to add a new project to the system.</t>
+  </si>
+  <si>
+    <t>The form should collect project details, including name, description, and start date.</t>
+  </si>
+  <si>
+    <t>Upon submission, the project information should be stored in the database.</t>
+  </si>
+  <si>
+    <t>Add Task Form:</t>
+  </si>
+  <si>
+    <t>As a user, I want a form to add a new task related to a project.</t>
+  </si>
+  <si>
+    <t>The form should include fields for task name, description, due date, and project association.</t>
+  </si>
+  <si>
+    <t>The task information should be saved in the database when the form is submitted.</t>
+  </si>
+  <si>
+    <t>Add Story Form:</t>
+  </si>
+  <si>
+    <t>As a user, I want a form to add a new user story related to a project.</t>
+  </si>
+  <si>
+    <t>The form should capture user story details, including title, description, and project association.</t>
+  </si>
+  <si>
+    <t>The user story information should be saved in the database upon submission.</t>
+  </si>
+  <si>
+    <t>Add Sprint Form:</t>
+  </si>
+  <si>
+    <t>As a user, I want a form to add a new sprint to a project.</t>
+  </si>
+  <si>
+    <t>The form should include fields for sprint name, start date, end date, and project association.</t>
+  </si>
+  <si>
+    <t>Upon submission, the sprint information should be stored in the database.</t>
+  </si>
+  <si>
+    <t>List Employees Route:</t>
+  </si>
+  <si>
+    <t>As a user, I want to view a list of all employees in the system.</t>
+  </si>
+  <si>
+    <t>There should be a dedicated route (/employees) that displays a paginated list of all employees.</t>
+  </si>
+  <si>
+    <t>Each entry in the list should show key information about the employee.</t>
+  </si>
+  <si>
+    <t>List Projects Route:</t>
+  </si>
+  <si>
+    <t>As a user, I want to see a list of all projects available in the system.</t>
+  </si>
+  <si>
+    <t>There should be a dedicated route (/projects) that displays a paginated list of all projects.</t>
+  </si>
+  <si>
+    <t>Each entry in the list should provide essential details about the project.</t>
+  </si>
+  <si>
+    <t>List Tasks Route:</t>
+  </si>
+  <si>
+    <t>As a user, I want to view a list of tasks associated with a specific project.</t>
+  </si>
+  <si>
+    <t>There should be a route (/projects/:projectId/tasks) that displays a paginated list of tasks for a specific project.</t>
+  </si>
+  <si>
+    <t>Each entry in the list should show relevant information about the task.</t>
+  </si>
+  <si>
+    <t>List User Stories Route:</t>
+  </si>
+  <si>
+    <t>As a user, I want to see a list of user stories related to a specific project.</t>
+  </si>
+  <si>
+    <t>There should be a route (/projects/:projectId/user-stories) that displays a paginated list of user stories for a specific project.</t>
+  </si>
+  <si>
+    <t>Each entry in the list should provide details about the user story.</t>
+  </si>
+  <si>
+    <t>List Sprints Route:</t>
+  </si>
+  <si>
+    <t>As a user, I want to view a list of all sprints associated with a project.</t>
+  </si>
+  <si>
+    <t>There should be a route (/projects/:projectId/sprints) that displays a paginated list of sprints for a specific project.</t>
+  </si>
+  <si>
+    <t>Each entry in the list should show relevant details about the sprint.</t>
+  </si>
+  <si>
+    <t>Form Validation - Add Employee:</t>
+  </si>
+  <si>
+    <t>As a user, I want the "Add Employee" form to validate input data to ensure accuracy.</t>
+  </si>
+  <si>
+    <t>Display appropriate error messages for missing or invalid input.</t>
+  </si>
+  <si>
+    <t>Ensure that the form cannot be submitted until all required fields are filled correctly.</t>
+  </si>
+  <si>
+    <t>Provide visual indicators for required fields.</t>
+  </si>
+  <si>
+    <t>Alerts - Add Employee:</t>
+  </si>
+  <si>
+    <t>As a user, I want to receive feedback through alerts after submitting the "Add Employee" form.</t>
+  </si>
+  <si>
+    <t>Display a success alert if the employee is added successfully.</t>
+  </si>
+  <si>
+    <t>Show an error alert if there is an issue with the submission, providing details about the error.</t>
+  </si>
+  <si>
+    <t>Form Validation - Add Project:</t>
+  </si>
+  <si>
+    <t>As a user, I want the "Add Project" form to validate input data to prevent errors.</t>
+  </si>
+  <si>
+    <t>Implement validation for fields like project name and start date.</t>
+  </si>
+  <si>
+    <t>Ensure that the form prevents submission with invalid or missing data.</t>
+  </si>
+  <si>
+    <t>Alerts - Add Project:</t>
+  </si>
+  <si>
+    <t>As a user, I want to see alerts after submitting the "Add Project" form.</t>
+  </si>
+  <si>
+    <t>Display a success alert when the project is added successfully.</t>
+  </si>
+  <si>
+    <t>Show an error alert if there is an issue during the submission process.</t>
+  </si>
+  <si>
+    <t>Form Validation - Add Task:</t>
+  </si>
+  <si>
+    <t>As a user, I want the "Add Task" form to validate input data for accuracy.</t>
+  </si>
+  <si>
+    <t>Implement validation for fields such as task name, description, and due date.</t>
+  </si>
+  <si>
+    <t>Prevent form submission until all required fields are filled correctly.</t>
+  </si>
+  <si>
+    <t>Alerts - Add Task:</t>
+  </si>
+  <si>
+    <t>As a user, I want to receive alerts after submitting the "Add Task" form.</t>
+  </si>
+  <si>
+    <t>Display a success alert if the task is added successfully.</t>
+  </si>
+  <si>
+    <t>Show an error alert if there is an issue with the submission.</t>
+  </si>
+  <si>
+    <t>Form Validation - Add User Story:</t>
+  </si>
+  <si>
+    <t>As a user, I want the "Add User Story" form to validate input data for accuracy.</t>
+  </si>
+  <si>
+    <t>Implement validation for user story title, description, and project association.</t>
+  </si>
+  <si>
+    <t>Alerts - Add User Story:</t>
+  </si>
+  <si>
+    <t>As a user, I want to see alerts after submitting the "Add User Story" form.</t>
+  </si>
+  <si>
+    <t>Display a success alert if the user story is added successfully.</t>
+  </si>
+  <si>
+    <t>Form Validation - Add Sprint:</t>
+  </si>
+  <si>
+    <t>As a user, I want the "Add Sprint" form to validate input data to prevent errors.</t>
+  </si>
+  <si>
+    <t>Implement validation for sprint name, start date, end date, and project association.</t>
+  </si>
+  <si>
+    <t>Alerts - Add Sprint:</t>
+  </si>
+  <si>
+    <t>As a user, I want to receive alerts after submitting the "Add Sprint" form.</t>
+  </si>
+  <si>
+    <t>Display a success alert if the sprint is added successfully.</t>
+  </si>
+  <si>
+    <t>User Registration:</t>
+  </si>
+  <si>
+    <t>As an unregistered user, I want to be able to sign up for an account.</t>
+  </si>
+  <si>
+    <t>Provide a registration form with fields for username, email, and password.</t>
+  </si>
+  <si>
+    <t>Validate the input and display appropriate error messages.</t>
+  </si>
+  <si>
+    <t>Upon successful registration, store user information securely in the database.</t>
+  </si>
+  <si>
+    <t>User Login:</t>
+  </si>
+  <si>
+    <t>As a registered user, I want to log in to my account.</t>
+  </si>
+  <si>
+    <t>Display a login screen with fields for username/email and password.</t>
+  </si>
+  <si>
+    <t>Validate the credentials and authenticate the user.</t>
+  </si>
+  <si>
+    <t>Redirect the user to the application's main dashboard upon successful login.</t>
+  </si>
+  <si>
+    <t>Authentication Guards:</t>
+  </si>
+  <si>
+    <t>As a logged-in user, I want to access certain routes only if I am authenticated.</t>
+  </si>
+  <si>
+    <t>Implement an authentication guard to protect sensitive routes.</t>
+  </si>
+  <si>
+    <t>If a user is not authenticated, redirect them to the login screen.</t>
+  </si>
+  <si>
+    <t>Ensure that the guard allows access to authorized users only.</t>
+  </si>
+  <si>
+    <t>User Profile:</t>
+  </si>
+  <si>
+    <t>As an authenticated user, I want to view and edit my profile information.</t>
+  </si>
+  <si>
+    <t>Provide a user profile page accessible after login.</t>
+  </si>
+  <si>
+    <t>Display the user's information and allow them to edit certain details.</t>
+  </si>
+  <si>
+    <t>Update the database with the modified user profile information.</t>
+  </si>
+  <si>
+    <t>Logout Functionality:</t>
+  </si>
+  <si>
+    <t>As a logged-in user, I want to log out of my account securely.</t>
+  </si>
+  <si>
+    <t>Implement a logout button or link in the application.</t>
+  </si>
+  <si>
+    <t>Clear the user's session and redirect them to the login screen upon logout.</t>
+  </si>
+  <si>
+    <t>Authorization Roles:</t>
+  </si>
+  <si>
+    <t>As an administrator, I want to assign roles to users for authorization purposes.</t>
+  </si>
+  <si>
+    <t>Create roles such as admin, regular user, etc.</t>
+  </si>
+  <si>
+    <t>Assign roles to users during registration or by an admin user.</t>
+  </si>
+  <si>
+    <t>Implement authorization guards based on roles.</t>
+  </si>
+  <si>
+    <t>Protected Routes for Admins:</t>
+  </si>
+  <si>
+    <t>As an administrator, I want to access routes that regular users cannot.</t>
+  </si>
+  <si>
+    <t>Implement an admin guard to protect routes accessible only to administrators.</t>
+  </si>
+  <si>
+    <t>Ensure that non-admin users are redirected away from these routes.</t>
+  </si>
+  <si>
+    <t>Change Button for Unauthorized Users:</t>
+  </si>
+  <si>
+    <t>As an unauthorized user, I want to see different buttons or options on certain pages.</t>
+  </si>
+  <si>
+    <t>If a user is not authorized to perform certain actions, display a disabled or hidden button.</t>
+  </si>
+  <si>
+    <t>Show a tooltip or message explaining the authorization requirement.</t>
+  </si>
+  <si>
+    <t>Modify Admin-Only Actions:</t>
+  </si>
+  <si>
+    <t>As a regular user, I want to see different options for actions that only admins can perform.</t>
+  </si>
+  <si>
+    <t>If the user is not an admin, hide or disable buttons related to admin-only actions.</t>
+  </si>
+  <si>
+    <t>Provide a clear message indicating that the action is restricted to administrators.</t>
+  </si>
+  <si>
+    <t>Dynamic Button Text Based on Role:</t>
+  </si>
+  <si>
+    <t>As a user with a specific role, I want buttons to display context-aware text.</t>
+  </si>
+  <si>
+    <t>Change the text of certain buttons based on the user's role.</t>
+  </si>
+  <si>
+    <t>For example, if an admin is viewing a user profile, the button to edit should say "Edit User" instead of just "Edit."</t>
+  </si>
+  <si>
+    <t>Conditional Display of UI Components:</t>
+  </si>
+  <si>
+    <t>As an authorized user, I want certain UI components to be conditionally displayed based on my role.</t>
+  </si>
+  <si>
+    <t>Show or hide specific sections of the UI based on the user's role.</t>
+  </si>
+  <si>
+    <t>For instance, an admin might see an additional section in the navigation menu that regular users do not.</t>
+  </si>
+  <si>
+    <t>Alerts for Unauthorized Actions:</t>
+  </si>
+  <si>
+    <t>As an unauthorized user, I want to receive an alert when attempting an action I don't have permission for.</t>
+  </si>
+  <si>
+    <t>Display an alert or modal when the user tries to perform an unauthorized action.</t>
+  </si>
+  <si>
+    <t>The message should clearly state that the action is not allowed.</t>
+  </si>
+  <si>
+    <t>Consistent UI Across Roles:</t>
+  </si>
+  <si>
+    <t>As a user, I want a consistent and user-friendly interface regardless of my role.</t>
+  </si>
+  <si>
+    <t>Ensure that changes in button appearance or functionality do not compromise the overall user experience.</t>
+  </si>
+  <si>
+    <t>Maintain a cohesive design across the application for a seamless user interface.</t>
+  </si>
+  <si>
+    <t>Role-Based Navigation:</t>
+  </si>
+  <si>
+    <t>As a user with a specific role, I want the navigation menu to adapt based on my authorization.</t>
+  </si>
+  <si>
+    <t>Show or hide menu items in the navigation based on the user's role.</t>
+  </si>
+  <si>
+    <t>Admin users might have additional menu options compared to regular users.</t>
   </si>
 </sst>
 </file>
@@ -597,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A9A32-482B-4419-8101-EEA2CF04A77F}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,4 +1371,902 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67ED4C4A-268E-4E01-A97D-52218935B83C}">
+  <dimension ref="A2:A211"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="94.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>